--- a/agents/Bmallei/Bmallei-Data-Contents.xlsx
+++ b/agents/Bmallei/Bmallei-Data-Contents.xlsx
@@ -51,16 +51,16 @@
     <t xml:space="preserve">sub-title</t>
   </si>
   <si>
-    <t xml:space="preserve">Based on official disease reports to the OIE</t>
+    <t xml:space="preserve">Based on official disease reports to the WOAH</t>
   </si>
   <si>
     <t xml:space="preserve">text</t>
   </si>
   <si>
-    <t xml:space="preserve">Glanders is a disease listed in the World Organisation for Animal Health ({ref009:OIE}) Terrestrial Animal Health Code and must be reported to the OIE. The map to the right displays outbreak points reported to the OIE early warning system since 2005.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As described in the OIE {ref005:Terrestrial Animal Health Code}, the OIE early warning system includes immediate notifications and follow-up reports on:</t>
+    <t xml:space="preserve">Glanders is a disease listed in the World Organisation for Animal Health ({ref009:WOAH}) Terrestrial Animal Health Code and must be reported to the WOAH. The map to the right displays outbreak points reported to the WOAH early warning system since 2005.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As described in the WOAH {ref005:Terrestrial Animal Health Code}, the WOAH early warning system includes immediate notifications and follow-up reports on:</t>
   </si>
   <si>
     <t xml:space="preserve">list</t>
@@ -84,7 +84,7 @@
     <t xml:space="preserve">Occurrence of a listed disease in an unusual host species.</t>
   </si>
   <si>
-    <t xml:space="preserve">Countries are coloured according to the available information regarding their stable disease situation (disease status legend). This information is provided by countries through the OIE monitoring system, which is a different reporting channel.&lt;br&gt;Immediate notifications (points) and disease status (country/region colours) are reported to the OIE in different spatial and temporal scales, and therefore are displayed in the map as layers which can be filtered independently.</t>
+    <t xml:space="preserve">Countries are coloured according to the available information regarding their stable disease situation (disease status legend). This information is provided by countries through the WOAH monitoring system, which is a different reporting channel.&lt;br&gt;Immediate notifications (points) and disease status (country/region colours) are reported to the WOAH in different spatial and temporal scales, and therefore are displayed in the map as layers which can be filtered independently.</t>
   </si>
   <si>
     <t xml:space="preserve">annotation</t>
@@ -96,7 +96,7 @@
     <t xml:space="preserve">date</t>
   </si>
   <si>
-    <t xml:space="preserve">For more up to date reports, visit the original data source: {ref001:OIE-WAHIS}.</t>
+    <t xml:space="preserve">For more up to date reports, visit the original data source: {ref001:WOAH-WAHIS}.</t>
   </si>
   <si>
     <t xml:space="preserve">map</t>
@@ -108,7 +108,7 @@
     <t xml:space="preserve">Animal Health Impact</t>
   </si>
   <si>
-    <t xml:space="preserve">Glanders is a disease caused by the bacteria &lt;i&gt;Burkholderia mallei&lt;/i&gt;. Many animal species are known to be susceptible but disease generally occur in horses, donkeys and mules. Infections may cause ulcerations and nodules on the skin and in the respiratory tract and there are four different clinical presentations. The nasal and pulmonay forms, where clincical signs include nasal discharge, cough, fever and dyspnoea. These forms tend to be acute. A cutaneous form, also referred to as farcy, also exists where infected animals develop enlarged lymph nodes, nodular abscesses or dry ulcers. This form tend to be more chronic in nature. Nodules may also form in other internal organs, subsequently leading to wasting and eventually death.  Asymptomatic carriers are also possible.  Donkeys and mules tend to develop the acute respiratory forms and horses more often develop the chronic or asymtomatic forms ({ref008:OIE}).</t>
+    <t xml:space="preserve">Glanders is a disease caused by the bacteria &lt;i&gt;Burkholderia mallei&lt;/i&gt;. Many animal species are known to be susceptible but disease generally occur in horses, donkeys and mules. Infections may cause ulcerations and nodules on the skin and in the respiratory tract and there are four different clinical presentations. The nasal and pulmonay forms, where clincical signs include nasal discharge, cough, fever and dyspnoea. These forms tend to be acute. A cutaneous form, also referred to as farcy, also exists where infected animals develop enlarged lymph nodes, nodular abscesses or dry ulcers. This form tend to be more chronic in nature. Nodules may also form in other internal organs, subsequently leading to wasting and eventually death.  Asymptomatic carriers are also possible.  Donkeys and mules tend to develop the acute respiratory forms and horses more often develop the chronic or asymtomatic forms ({ref008:WOAH}).</t>
   </si>
   <si>
     <t xml:space="preserve">The panel to the right summarizes all evidence collected by EFSA from published experimental infection studies describing the health effects of this pathogen in host animal species. Scroll down through the content.</t>
@@ -174,7 +174,7 @@
     <t xml:space="preserve">Bacterial characteristics</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;i&gt;Burkholderia mallei&lt;/i&gt; is a Gram-negative aerobic bacterium {ref008:OIE Technical disease card} </t>
+    <t xml:space="preserve">&lt;i&gt;Burkholderia mallei&lt;/i&gt; is a Gram-negative aerobic bacterium {ref008:WOAH Technical disease card} </t>
   </si>
   <si>
     <t xml:space="preserve">Agent survival outside living hosts</t>
@@ -207,7 +207,7 @@
     <t xml:space="preserve">Transmission</t>
   </si>
   <si>
-    <t xml:space="preserve">Transmission occurs through contaminated feed or water, through aerosols or via fomites such as riding tack. Dermal transmission through abarasions in the skin or through the mucosal membranes is also possible. Over-crowding and poor sanitation predisposes are known risk factors for disease transmission. The incubation period varies from a few days to several months {ref008:OIE Technical disease card}.</t>
+    <t xml:space="preserve">Transmission occurs through contaminated feed or water, through aerosols or via fomites such as riding tack. Dermal transmission through abarasions in the skin or through the mucosal membranes is also possible. Over-crowding and poor sanitation predisposes are known risk factors for disease transmission. The incubation period varies from a few days to several months {ref008:WOAH Technical disease card}.</t>
   </si>
   <si>
     <t xml:space="preserve">The panel to the right summarizes all evidence collected by EFSA from published experimental infection studies describing host infectiousness. Scroll down through the content.</t>
@@ -231,7 +231,7 @@
     <t xml:space="preserve">Diagnosis</t>
   </si>
   <si>
-    <t xml:space="preserve">Glanders can be diagnosed using by identifying the disease causing bacteria using either bacterial culture or Polymerase Chain Reaction (PCR). Serological tests such as the Complement fixation test (CFT) is also available and infected animals test positive on CFT approximately one week following infection. Enzyme-linked immunosorbent assays (ELISA) and Immunoblot assays are available but are not yet fully validated, ({ref009:OIE, Terrestrial Manual}).</t>
+    <t xml:space="preserve">Glanders can be diagnosed using by identifying the disease causing bacteria using either bacterial culture or Polymerase Chain Reaction (PCR). Serological tests such as the Complement fixation test (CFT) is also available and infected animals test positive on CFT approximately one week following infection. Enzyme-linked immunosorbent assays (ELISA) and Immunoblot assays are available but are not yet fully validated, ({ref009:WOAH, Terrestrial Manual}).</t>
   </si>
   <si>
     <t xml:space="preserve">EFSA conducts regular systematic literature reviews covering peer-reviewed literature in English since 1970, covering diagnostic tests approved for use in the European Union (EU). </t>
@@ -285,7 +285,7 @@
     <t xml:space="preserve">Glanders is a zoonosis and humans may become infected either directly through close contact with infected animals or indirectly via secretions, fomites or for example contaminated water or food {ref0033:Euro Surveill 2004; 9 (12)}.</t>
   </si>
   <si>
-    <t xml:space="preserve">For further information, visit the {ref034:CDC page on Glanders}), or the OIE (panel to the right).</t>
+    <t xml:space="preserve">For further information, visit the {ref034:CDC page on Glanders}), or the WOAH (panel to the right).</t>
   </si>
   <si>
     <t xml:space="preserve">Glanders_PH.html</t>
@@ -322,7 +322,7 @@
     <t xml:space="preserve">The CoVetLab consortium has been responsible for the systematic literature reviews since 2015, and has delivered story maps to EFSA since 2021. Partners are: Swedish National Veterinary Institute (SVA, Sweden); Wageningen Bioveterinary Research (WBVR, The Netherlands); Animal and Plant Health Agency (APHA; UK) and the University of Surrey (UK). </t>
   </si>
   <si>
-    <t xml:space="preserve">Geographical distribution data has been kindly provided by the World Organisation of Animal Health (OIE). {ref001:OIE-WAHIS} (OIE World Animal Health Information System) is the original source of these data.</t>
+    <t xml:space="preserve">Geographical distribution data has been kindly provided by the World Organisation of Animal Health (WOAH). {ref001:WOAH-WAHIS} (WOAH World Animal Health Information System) is the original source of these data.</t>
   </si>
   <si>
     <t xml:space="preserve">EFSA thanks the following experts for their specific contribution to this story map:</t>
@@ -382,7 +382,7 @@
     <t xml:space="preserve">ref001</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE-WAHIS (OIE World Animal Health Information System)</t>
+    <t xml:space="preserve">WOAH-WAHIS (WOAH World Animal Health Information System)</t>
   </si>
   <si>
     <t xml:space="preserve">https://wahis.oie.int/</t>
@@ -418,7 +418,7 @@
     <t xml:space="preserve">ref005</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE (World Organisation for Animal Health). Terrestrial Animal Health Code 2021. OIE, Paris, France</t>
+    <t xml:space="preserve">WOAH (World Organisation for Animal Health). Terrestrial Animal Health Code 2021. WOAH, Paris, France</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.oie.int/en/what-we-do/standards/codes-and-manuals/terrestrial-code-online-access/?id=169&amp;L=0&amp;htmfile=chapitre_notification.htm</t>
@@ -445,7 +445,7 @@
     <t xml:space="preserve">ref008</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE (World Organisation for Animal Health) Technical Disease Card: Glanders. 2021.</t>
+    <t xml:space="preserve">WOAH (World Organisation for Animal Health) Technical Disease Card: Glanders. 2021.</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.oie.int/en/disease/glanders/</t>
@@ -454,7 +454,7 @@
     <t xml:space="preserve">ref009</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE (World Organisation for Animal Health), 2021. Glanders. Chapter 3.6.11. OIE Terrestrial Animal Health Code 2021. OIE, Paris, France</t>
+    <t xml:space="preserve">WOAH (World Organisation for Animal Health), 2021. Glanders. Chapter 3.6.11. WOAH Terrestrial Animal Health Code 2021. WOAH, Paris, France</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.oie.int/fileadmin/Home/eng/Health_standards/tahm/3.06.11_GLANDERS.pdf</t>
@@ -463,7 +463,7 @@
     <t xml:space="preserve">ref010</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE (World Organisation for Animal Health), 2021, Glanders, OIE, Paris, France</t>
+    <t xml:space="preserve">WOAH (World Organisation for Animal Health), 2021, Glanders, WOAH, Paris, France</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.oie.int/app/uploads/2021/03/glanders.pdf</t>

--- a/agents/Bmallei/Bmallei-Data-Contents.xlsx
+++ b/agents/Bmallei/Bmallei-Data-Contents.xlsx
@@ -141,7 +141,7 @@
     <t xml:space="preserve">You can download all data collected through systematic literature review {ref014:here}. Data fields are explained in this {ref015:read-me file}.</t>
   </si>
   <si>
-    <t xml:space="preserve">*The review was last updated in January 2021. The complete list of references is available for download {ref016:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
+    <t xml:space="preserve">*The review was last updated in January 2022. The complete list of references is available for download {ref016:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
   </si>
   <si>
     <t xml:space="preserve">Public Health</t>
@@ -153,7 +153,7 @@
     <t xml:space="preserve">HTML file</t>
   </si>
   <si>
-    <t xml:space="preserve">Impact-Bmallei.html</t>
+    <t xml:space="preserve">ExperimentalInfections-Bmallei.html</t>
   </si>
   <si>
     <t xml:space="preserve">Agent</t>
@@ -198,7 +198,7 @@
     <t xml:space="preserve">You can download all data collected through systematic literature review {ref017:here}. Data fields are explained in this {ref018:read-me file}.</t>
   </si>
   <si>
-    <t xml:space="preserve">*The review was last updated in January 2021. The complete list of references is available for download {ref019:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
+    <t xml:space="preserve">*The review was last updated in January 2022. The complete list of references is available for download {ref019:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
   </si>
   <si>
     <t xml:space="preserve">Survival-Bmallei.html</t>
@@ -258,7 +258,7 @@
     <t xml:space="preserve">You can download all data collected through systematic literature review {ref020:here}. Data fields are explained in this {ref021:read-me file}.</t>
   </si>
   <si>
-    <t xml:space="preserve">The review was last updated in January 2021. The complete list of references is available for download {ref022:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
+    <t xml:space="preserve">The review was last updated in January 2022. The complete list of references is available for download {ref022:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
   </si>
   <si>
     <t xml:space="preserve">Diagnostic-Bmallei.html</t>

--- a/agents/Bmallei/Bmallei-Data-Contents.xlsx
+++ b/agents/Bmallei/Bmallei-Data-Contents.xlsx
@@ -201,7 +201,7 @@
     <t xml:space="preserve">*The review was last updated in January 2022. The complete list of references is available for download {ref019:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
   </si>
   <si>
-    <t xml:space="preserve">Survival-Bmallei.html</t>
+    <t xml:space="preserve">PathogenSurvival-Bmallei.html</t>
   </si>
   <si>
     <t xml:space="preserve">Transmission</t>

--- a/agents/Bmallei/Bmallei-Data-Contents.xlsx
+++ b/agents/Bmallei/Bmallei-Data-Contents.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="225">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -271,6 +271,15 @@
   </si>
   <si>
     <t xml:space="preserve">EFSA conducts regular systematic literature reviews covering all vaccine efficacy studies  published in peer-reviewed literature in English since 1970, when evaluating vaccines approved for use in the European Union. The next update of the SLR for vaccines is scheduled to be carried out in 2023. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Picture on the right: Bengt Ekberg, Swedish National Veterinary Institute (www.sva.se)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">image_right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">horses.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Treatments</t>
@@ -332,9 +341,6 @@
   </si>
   <si>
     <t xml:space="preserve">Expert name2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">image_right</t>
   </si>
   <si>
     <t xml:space="preserve">covetlab.png</t>
@@ -2359,16 +2365,16 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B80" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E80" t="s">
         <v>86</v>
@@ -2376,19 +2382,19 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B81" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D81" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="E81" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82">
@@ -2396,7 +2402,7 @@
         <v>1</v>
       </c>
       <c r="B82" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C82" t="n">
         <v>1</v>
@@ -2405,7 +2411,7 @@
         <v>9</v>
       </c>
       <c r="E82" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="83">
@@ -2413,7 +2419,7 @@
         <v>2</v>
       </c>
       <c r="B83" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C83" t="n">
         <v>3</v>
@@ -2422,157 +2428,157 @@
         <v>13</v>
       </c>
       <c r="E83" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B84" t="n">
         <v>8</v>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D84" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E84" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B85" t="n">
         <v>8</v>
       </c>
       <c r="C85" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D85" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="E85" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B86" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E86" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B87" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E87" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B88" t="n">
         <v>9</v>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D88" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E88" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B89" t="n">
         <v>9</v>
       </c>
       <c r="C89" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D89" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="E89" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B90" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E90" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B91" t="n">
+        <v>9</v>
+      </c>
+      <c r="C91" t="n">
         <v>10</v>
       </c>
-      <c r="C91" t="n">
-        <v>3</v>
-      </c>
       <c r="D91" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E91" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B92" t="n">
         <v>10</v>
       </c>
       <c r="C92" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D92" t="s">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="E92" t="s">
         <v>99</v>
@@ -2580,16 +2586,16 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B93" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E93" t="s">
         <v>100</v>
@@ -2597,41 +2603,41 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B94" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D94" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="E94" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B95" t="n">
         <v>11</v>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D95" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E95" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B96" t="n">
         <v>11</v>
@@ -2643,55 +2649,55 @@
         <v>13</v>
       </c>
       <c r="E96" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B97" t="n">
         <v>11</v>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E97" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B98" t="n">
         <v>11</v>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E98" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B99" t="n">
         <v>11</v>
       </c>
       <c r="C99" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D99" t="s">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="E99" t="s">
         <v>107</v>
@@ -2699,16 +2705,16 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B100" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E100" t="s">
         <v>108</v>
@@ -2716,16 +2722,16 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B101" t="n">
+        <v>11</v>
+      </c>
+      <c r="C101" t="n">
         <v>12</v>
       </c>
-      <c r="C101" t="n">
-        <v>3</v>
-      </c>
       <c r="D101" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="E101" t="s">
         <v>109</v>
@@ -2733,16 +2739,16 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B102" t="n">
         <v>12</v>
       </c>
       <c r="C102" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D102" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E102" t="s">
         <v>110</v>
@@ -2750,16 +2756,16 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B103" t="n">
         <v>12</v>
       </c>
       <c r="C103" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D103" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E103" t="s">
         <v>111</v>
@@ -2767,16 +2773,16 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B104" t="n">
         <v>12</v>
       </c>
       <c r="C104" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D104" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E104" t="s">
         <v>112</v>
@@ -2784,7 +2790,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B105" t="n">
         <v>12</v>
@@ -2801,7 +2807,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B106" t="n">
         <v>12</v>
@@ -2818,7 +2824,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B107" t="n">
         <v>12</v>
@@ -2835,7 +2841,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B108" t="n">
         <v>12</v>
@@ -2852,7 +2858,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B109" t="n">
         <v>12</v>
@@ -2865,6 +2871,40 @@
       </c>
       <c r="E109" t="s">
         <v>117</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>9</v>
+      </c>
+      <c r="B110" t="n">
+        <v>12</v>
+      </c>
+      <c r="C110" t="n">
+        <v>4</v>
+      </c>
+      <c r="D110" t="s">
+        <v>16</v>
+      </c>
+      <c r="E110" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>10</v>
+      </c>
+      <c r="B111" t="n">
+        <v>12</v>
+      </c>
+      <c r="C111" t="n">
+        <v>4</v>
+      </c>
+      <c r="D111" t="s">
+        <v>16</v>
+      </c>
+      <c r="E111" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2886,489 +2926,489 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D9" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D12" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D13" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D14" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D15" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D16" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D17" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D18" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D19" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D20" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D21" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D22" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D23" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D24" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D25" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D26" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D27" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D28" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D29" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D30" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D31" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D32" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B33" t="n">
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D33" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B34" t="n">
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D34" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B35" t="n">
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D35" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
